--- a/data/resumes_scrubbed/legislative_activity/116_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/116_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62C40C42-B410-4B61-89FC-94F219BFAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{62C40C42-B410-4B61-89FC-94F219BFAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05ECD07-D62C-40D1-8B92-EA0D50F91667}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="116_2" sheetId="1" r:id="rId1"/>
@@ -154,13 +154,13 @@
     <t>963 hrs., 52'</t>
   </si>
   <si>
-    <t>565 hrs, 26'</t>
+    <t>565 hrs., 26'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
